--- a/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
+++ b/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ToyParty-HexaBlast\Assets\ResourcesSources\Datas\DataTableExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B195EAD-D5FB-4571-A8F3-D9F585ECA0E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB186BA-C416-41F1-89AD-0BB5B591F130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TileAndBlockDefaultScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlockMixMoveSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +90,22 @@
   </si>
   <si>
     <t>이미지 리소스에 맞는 블록 타일 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileDefaultScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultHexPositionOffsetX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultHexPositionOffsetY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View 단에서 Vector3를 HexVector3로 변환할때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,43 +203,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -292,6 +281,29 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,10 +319,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B3:C6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="B3:C6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="$key" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="$value" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="$key" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="$value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,11 +649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -655,10 +667,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5">
       <c r="C2" s="6" t="s">
@@ -683,7 +695,7 @@
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -691,7 +703,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5">
@@ -705,7 +717,7 @@
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -715,24 +727,46 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>0.3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
+++ b/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ToyParty-HexaBlast\Assets\ResourcesSources\Datas\DataTableExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB186BA-C416-41F1-89AD-0BB5B591F130}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EEC1AF-D081-40DC-8FB0-72D37A99186A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>View 단에서 Vector3를 HexVector3로 변환할때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockDefaultScale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,17 +653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E14" sqref="E14"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="86.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="51" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.75" style="1" customWidth="1"/>
@@ -767,6 +771,14 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
+++ b/Assets/ResourcesSources/Datas/DataTableExcel/ConstantsTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ToyParty-HexaBlast\Assets\ResourcesSources\Datas\DataTableExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EEC1AF-D081-40DC-8FB0-72D37A99186A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567DC1D8-E68C-4455-B069-3A95FC55A64C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>BlockDefaultScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultBlockShuffleSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,11 +657,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
@@ -700,7 +704,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -779,6 +783,14 @@
       </c>
       <c r="C11" s="6">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
